--- a/DATA_goal/Junction_Flooding_356.xlsx
+++ b/DATA_goal/Junction_Flooding_356.xlsx
@@ -461,7 +461,7 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -655,103 +655,103 @@
         <v>43740.92430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.25</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>4.31</v>
+        <v>43.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>43740.93125</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>60.92</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.94</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.6</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>43740.93819444445</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.95</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>43740.94513888889</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>66.87</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.6</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_356.xlsx
+++ b/DATA_goal/Junction_Flooding_356.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>43740.92430555556</v>
+        <v>45037.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.59</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.95</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>43740.93125</v>
+        <v>45037.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.09</v>
+        <v>0.468</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.22</v>
+        <v>0.261</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.174</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.04</v>
+        <v>0.365</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.56</v>
+        <v>0.064</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.57</v>
+        <v>0.637</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.38</v>
+        <v>0.218</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.97</v>
+        <v>0.229</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.29</v>
+        <v>0.264</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.51</v>
+        <v>0.374</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.77</v>
+        <v>0.347</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.286</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.55</v>
+        <v>0.248</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.87</v>
+        <v>0.471</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.02</v>
+        <v>0.272</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.238</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.202</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.92</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.98</v>
+        <v>0.525</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.66</v>
+        <v>0.271</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.91</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.3</v>
+        <v>0.248</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.124</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>7.04</v>
+        <v>0.265</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.06</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.51</v>
+        <v>1.002</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.93</v>
+        <v>0.213</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.05</v>
+        <v>0.605</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.621</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.94</v>
+        <v>0.472</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.6</v>
+        <v>0.264</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.89</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>43740.93819444445</v>
+        <v>45037.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.5</v>
+        <v>23.053</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.55</v>
+        <v>17.232</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.912</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.54</v>
+        <v>49.648</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.29</v>
+        <v>40.901</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.79</v>
+        <v>18.348</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.34</v>
+        <v>60.958</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6</v>
+        <v>27.652</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.81</v>
+        <v>12.513</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.71</v>
+        <v>18.644</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.92</v>
+        <v>20.115</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.15</v>
+        <v>21.36</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.27</v>
+        <v>5.881</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.15</v>
+        <v>17.963</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.53</v>
+        <v>25.788</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.94</v>
+        <v>14.914</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.391</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.827</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.36</v>
+        <v>267.819</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.19</v>
+        <v>49.937</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.12</v>
+        <v>16.593</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.15</v>
+        <v>34.202</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.03</v>
+        <v>17.818</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.55</v>
+        <v>2.405</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.41</v>
+        <v>31.292</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.95</v>
+        <v>14.721</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.13</v>
+        <v>13.398</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.61</v>
+        <v>15.149</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.34</v>
+        <v>21.266</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.453</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.15</v>
+        <v>55.201</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.35</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.56</v>
+        <v>20.682</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>43740.94513888889</v>
+        <v>45037.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.41</v>
+        <v>10.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.12</v>
+        <v>7.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.46</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.88</v>
+        <v>21.53</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.82</v>
+        <v>17.7</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.63</v>
+        <v>8.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.95</v>
+        <v>34.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.27</v>
+        <v>12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.35</v>
+        <v>5.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.39</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.68</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.96</v>
+        <v>9.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.53</v>
+        <v>2.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.89</v>
+        <v>7.83</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.69</v>
+        <v>11.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.68</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.87</v>
+        <v>113.15</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.35</v>
+        <v>21.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.72</v>
+        <v>7.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>15.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.82</v>
+        <v>7.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.64</v>
+        <v>1.06</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.75</v>
+        <v>16.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.67</v>
+        <v>6.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.62</v>
+        <v>6.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.23</v>
+        <v>6.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.09</v>
+        <v>9.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.6</v>
+        <v>31.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.71</v>
+        <v>4.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>43740.95207175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.25</v>
+        <v>8.99</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_356.xlsx
+++ b/DATA_goal/Junction_Flooding_356.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45037.50694444445</v>
+        <v>43740.92430555556</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45037.51388888889</v>
+        <v>43740.93125</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.468</v>
+        <v>6.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.261</v>
+        <v>5.22</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.174</v>
+        <v>0.015</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.365</v>
+        <v>11.042</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.064</v>
+        <v>11.56</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>4.026</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>15.567</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>6.378</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2.974</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>5.293</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>5.514</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>5.772</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>4.553</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>5.867</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>60.925</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>11.983</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>4.663</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>8.904999999999999</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>4.299</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>3.508</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>6.053</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0.637</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.218</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>1.002</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.621</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.472</v>
+        <v>12.935</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.264</v>
+        <v>2.6</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.25</v>
+        <v>4.893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45037.52083333334</v>
+        <v>43740.93819444445</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.053</v>
+        <v>5.504</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.232</v>
+        <v>4.548</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.912</v>
+        <v>0.028</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>49.648</v>
+        <v>10.539</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>40.901</v>
+        <v>10.29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.348</v>
+        <v>3.795</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>60.958</v>
+        <v>16.335</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>27.652</v>
+        <v>6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.513</v>
+        <v>2.807</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.644</v>
+        <v>4.714</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.115</v>
+        <v>4.917</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.36</v>
+        <v>5.151</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.881</v>
+        <v>1.271</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.963</v>
+        <v>4.153</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>25.788</v>
+        <v>5.532</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.914</v>
+        <v>2.94</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.391</v>
+        <v>0.453</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.827</v>
+        <v>0.329</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>267.819</v>
+        <v>55.365</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>49.937</v>
+        <v>11.194</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.593</v>
+        <v>4.118</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.202</v>
+        <v>8.146000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.818</v>
+        <v>4.034</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.405</v>
+        <v>0.549</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>31.292</v>
+        <v>7.407</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.721</v>
+        <v>2.953</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.398</v>
+        <v>3.131</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.149</v>
+        <v>3.61</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.266</v>
+        <v>5.342</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.453</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>55.201</v>
+        <v>14.152</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.585000000000001</v>
+        <v>2.348</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.682</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45037.52777777778</v>
+        <v>43740.94513888889</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.08</v>
+        <v>6.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.49</v>
+        <v>5.125</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.53</v>
+        <v>12.883</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.7</v>
+        <v>11.817</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.15</v>
+        <v>4.631</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.1</v>
+        <v>18.953</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12</v>
+        <v>7.267</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.49</v>
+        <v>3.352</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>5.394</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>5.678</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.4</v>
+        <v>5.961</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.59</v>
+        <v>1.533</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.83</v>
+        <v>4.892</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.34</v>
+        <v>6.689</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.52</v>
+        <v>3.683</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.365</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.323</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>113.15</v>
+        <v>66.86799999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.96</v>
+        <v>13.347</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.23</v>
+        <v>4.723</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>15.18</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.77</v>
+        <v>4.817</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.645</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.28</v>
+        <v>8.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.44</v>
+        <v>3.667</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.02</v>
+        <v>3.617</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.63</v>
+        <v>4.227</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.33</v>
+        <v>6.093</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>16.596</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.709</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>5.479</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>43740.95207175926</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>31.33</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>8.99</v>
+      <c r="T6" s="4" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_356.xlsx
+++ b/DATA_goal/Junction_Flooding_356.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>43740.92430555556</v>
+        <v>45037.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>43740.93125</v>
+        <v>45037.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.09</v>
+        <v>0.468</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.22</v>
+        <v>0.261</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.015</v>
+        <v>0.174</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.042</v>
+        <v>0.365</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.56</v>
+        <v>0.064</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.026</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>15.567</v>
+        <v>0.637</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.378</v>
+        <v>0.218</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.974</v>
+        <v>0.229</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.293</v>
+        <v>0.264</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.514</v>
+        <v>0.374</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.772</v>
+        <v>0.347</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.339</v>
+        <v>0.286</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.553</v>
+        <v>0.248</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.867</v>
+        <v>0.471</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.024</v>
+        <v>0.272</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.636</v>
+        <v>0.238</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.399</v>
+        <v>0.202</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>60.925</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.983</v>
+        <v>0.525</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.663</v>
+        <v>0.271</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.904999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.299</v>
+        <v>0.248</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.605</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>7.044</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>3.508</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>6.053</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.621</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.935</v>
+        <v>0.472</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.6</v>
+        <v>0.264</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.893</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>43740.93819444445</v>
+        <v>45037.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.504</v>
+        <v>23.053</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.548</v>
+        <v>17.232</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.028</v>
+        <v>0.912</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.539</v>
+        <v>49.648</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.29</v>
+        <v>40.901</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.795</v>
+        <v>18.348</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.335</v>
+        <v>60.958</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6</v>
+        <v>27.652</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.807</v>
+        <v>12.513</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.714</v>
+        <v>18.644</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.917</v>
+        <v>20.115</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.151</v>
+        <v>21.36</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.271</v>
+        <v>5.881</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.153</v>
+        <v>17.963</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.532</v>
+        <v>25.788</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.94</v>
+        <v>14.914</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>267.819</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>49.937</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>16.593</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>34.202</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>17.818</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>31.292</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>14.721</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>13.398</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>15.149</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>21.266</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.453</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>55.365</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>11.194</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.118</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>8.146000000000001</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>4.034</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>7.407</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>2.953</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>3.131</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>5.342</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>14.152</v>
+        <v>55.201</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.348</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.56</v>
+        <v>20.682</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>43740.94513888889</v>
+        <v>45037.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.41</v>
+        <v>10.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.125</v>
+        <v>7.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.883</v>
+        <v>21.53</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.817</v>
+        <v>17.7</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.631</v>
+        <v>8.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.953</v>
+        <v>34.1</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.267</v>
+        <v>12</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.352</v>
+        <v>5.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.394</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.678</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.961</v>
+        <v>9.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.533</v>
+        <v>2.59</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.892</v>
+        <v>7.83</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.689</v>
+        <v>11.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.683</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.365</v>
+        <v>0.25</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.323</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.86799999999999</v>
+        <v>113.15</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.347</v>
+        <v>21.96</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.723</v>
+        <v>7.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.468999999999999</v>
+        <v>15.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.817</v>
+        <v>7.77</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.645</v>
+        <v>1.06</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.75</v>
+        <v>16.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.667</v>
+        <v>6.44</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.617</v>
+        <v>6.02</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.227</v>
+        <v>6.63</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.093</v>
+        <v>9.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>16.596</v>
+        <v>31.33</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.709</v>
+        <v>4.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.479</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>43740.95207175926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.59</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.25</v>
+        <v>8.99</v>
       </c>
     </row>
   </sheetData>
